--- a/config_1.11/banner_style_ui.xlsx
+++ b/config_1.11/banner_style_ui.xlsx
@@ -1630,7 +1630,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L90" sqref="L90"/>
+      <selection pane="bottomLeft" activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4395,7 +4395,7 @@
         <v>19</v>
       </c>
       <c r="K90" s="7">
-        <v>1641254400</v>
+        <v>1641859200</v>
       </c>
       <c r="L90" s="7">
         <v>1643039999</v>
@@ -4616,7 +4616,7 @@
         <v>19</v>
       </c>
       <c r="K97" s="7">
-        <v>1641254400</v>
+        <v>1641859200</v>
       </c>
       <c r="L97" s="7">
         <v>1643039999</v>
@@ -4730,6 +4730,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="5"/>
   <pixelatorList sheetStid="6"/>
@@ -4737,15 +4745,29 @@
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4762,60 +4784,38 @@
 </comments>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>